--- a/Curation/Media/KBASE_MEDIAS/PRO99.xlsx
+++ b/Curation/Media/KBASE_MEDIAS/PRO99.xlsx
@@ -606,7 +606,7 @@
         <v>-100</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>0.001</v>
@@ -626,7 +626,7 @@
         <v>-100</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0.001</v>
@@ -646,7 +646,7 @@
         <v>-100</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>0.001</v>
@@ -666,7 +666,7 @@
         <v>-100</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0.001</v>
@@ -686,7 +686,7 @@
         <v>-100</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>0.001</v>
@@ -706,7 +706,7 @@
         <v>-100</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>0.001</v>
@@ -726,7 +726,7 @@
         <v>-100</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>0.001</v>
@@ -746,7 +746,7 @@
         <v>-100</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>0.001</v>
@@ -766,7 +766,7 @@
         <v>-100</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>0.001</v>
@@ -786,7 +786,7 @@
         <v>-100</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>0.001</v>
@@ -806,7 +806,7 @@
         <v>-100</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>0.001</v>
@@ -826,7 +826,7 @@
         <v>-100</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>0.001</v>
@@ -846,7 +846,7 @@
         <v>-100</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>0.001</v>
@@ -866,7 +866,7 @@
         <v>-100</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F15">
         <v>0.001</v>
@@ -886,7 +886,7 @@
         <v>-100</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>0.001</v>
@@ -906,7 +906,7 @@
         <v>-100</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F17">
         <v>0.001</v>
@@ -926,7 +926,7 @@
         <v>-100</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F18">
         <v>0.001</v>
@@ -946,7 +946,7 @@
         <v>-100</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>0.001</v>
@@ -966,7 +966,7 @@
         <v>-100</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>0.001</v>
@@ -1006,7 +1006,7 @@
         <v>-100</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>0.001</v>
